--- a/data/pca/factorExposure/factorExposure_2018-10-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.07389765544346467</v>
+        <v>-0.04458233339672675</v>
       </c>
       <c r="C2">
-        <v>0.05962764251033219</v>
+        <v>0.003800791443709508</v>
       </c>
       <c r="D2">
-        <v>0.06115982899268933</v>
+        <v>-0.01697460573543037</v>
       </c>
       <c r="E2">
-        <v>0.03547793467129556</v>
+        <v>-0.01485468526416282</v>
       </c>
       <c r="F2">
-        <v>-0.1376276056801402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.04570368105080851</v>
+      </c>
+      <c r="G2">
+        <v>-0.1130048697683359</v>
+      </c>
+      <c r="H2">
+        <v>0.07515875354107601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.2003613120448309</v>
+        <v>-0.1195373918351677</v>
       </c>
       <c r="C3">
-        <v>-0.007252536536226836</v>
+        <v>-0.04060258394047937</v>
       </c>
       <c r="D3">
-        <v>0.1299063639148512</v>
+        <v>-0.05654842707558055</v>
       </c>
       <c r="E3">
-        <v>0.1178168693851306</v>
+        <v>-0.00705747659445798</v>
       </c>
       <c r="F3">
-        <v>-0.3275119048522577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.03248534734578854</v>
+      </c>
+      <c r="G3">
+        <v>-0.3492010024496986</v>
+      </c>
+      <c r="H3">
+        <v>0.2802229755038175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06990804269033203</v>
+        <v>-0.05625184011167041</v>
       </c>
       <c r="C4">
-        <v>0.03323780768642005</v>
+        <v>-0.005293284642899902</v>
       </c>
       <c r="D4">
-        <v>0.03690960790541479</v>
+        <v>-0.02321289974930207</v>
       </c>
       <c r="E4">
-        <v>0.06337652907415757</v>
+        <v>0.0179185470451944</v>
       </c>
       <c r="F4">
-        <v>-0.05880569999691669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06563858774307216</v>
+      </c>
+      <c r="G4">
+        <v>-0.0587107394430524</v>
+      </c>
+      <c r="H4">
+        <v>0.02768610910357682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.008215431272687191</v>
+        <v>-0.03218981644228026</v>
       </c>
       <c r="C6">
-        <v>0.004026623572675661</v>
+        <v>-0.001745173307913208</v>
       </c>
       <c r="D6">
-        <v>0.005110463577045001</v>
+        <v>-0.01420218232962018</v>
       </c>
       <c r="E6">
-        <v>-0.004779122863316534</v>
+        <v>0.004125771874306921</v>
       </c>
       <c r="F6">
-        <v>-0.002423207801104599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02926833531525969</v>
+      </c>
+      <c r="G6">
+        <v>-0.009280111770673553</v>
+      </c>
+      <c r="H6">
+        <v>-0.03130460966062413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03504477513304176</v>
+        <v>-0.02734050673612662</v>
       </c>
       <c r="C7">
-        <v>0.01726309384727168</v>
+        <v>-0.003215485848395942</v>
       </c>
       <c r="D7">
-        <v>0.04242867838885146</v>
+        <v>-0.008237977081659478</v>
       </c>
       <c r="E7">
-        <v>0.02365947035762464</v>
+        <v>0.03428304557255957</v>
       </c>
       <c r="F7">
-        <v>-0.05327038891000895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02761471633615522</v>
+      </c>
+      <c r="G7">
+        <v>-0.04419643831809789</v>
+      </c>
+      <c r="H7">
+        <v>0.04423363832893332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03916712564096774</v>
+        <v>-0.01305668606261953</v>
       </c>
       <c r="C8">
-        <v>0.004787836493479447</v>
+        <v>-0.006253942165611358</v>
       </c>
       <c r="D8">
-        <v>0.02903334655011411</v>
+        <v>-0.02413289908496504</v>
       </c>
       <c r="E8">
-        <v>0.05530476995246808</v>
+        <v>0.01086270259455487</v>
       </c>
       <c r="F8">
-        <v>-0.09552542813225469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0325078227976176</v>
+      </c>
+      <c r="G8">
+        <v>-0.07203481453172382</v>
+      </c>
+      <c r="H8">
+        <v>0.05315631797244807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05641791280352177</v>
+        <v>-0.04547286708098319</v>
       </c>
       <c r="C9">
-        <v>0.0298902488897822</v>
+        <v>-0.007833643333231652</v>
       </c>
       <c r="D9">
-        <v>0.01974310711791235</v>
+        <v>-0.0167135370554164</v>
       </c>
       <c r="E9">
-        <v>0.06868537877494091</v>
+        <v>0.01707045769854783</v>
       </c>
       <c r="F9">
-        <v>-0.06190877657155675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04434156721747086</v>
+      </c>
+      <c r="G9">
+        <v>-0.0757669716998539</v>
+      </c>
+      <c r="H9">
+        <v>0.02805900273539128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02901887203445853</v>
+        <v>-0.05810342629651934</v>
       </c>
       <c r="C10">
-        <v>0.06308116975245907</v>
+        <v>-0.01913327686625681</v>
       </c>
       <c r="D10">
-        <v>-0.09358885404138656</v>
+        <v>0.1525791216549609</v>
       </c>
       <c r="E10">
-        <v>-0.1098017907463223</v>
+        <v>-0.02152955974812772</v>
       </c>
       <c r="F10">
-        <v>-0.08844131855556708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.08088254249721188</v>
+      </c>
+      <c r="G10">
+        <v>-0.0507770269063469</v>
+      </c>
+      <c r="H10">
+        <v>0.02678240010476176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04681718318158045</v>
+        <v>-0.03144022334160721</v>
       </c>
       <c r="C11">
-        <v>0.00801707733484968</v>
+        <v>-0.01578502151073348</v>
       </c>
       <c r="D11">
-        <v>0.02744213852492531</v>
+        <v>-0.02782558482154236</v>
       </c>
       <c r="E11">
-        <v>0.01935771268385872</v>
+        <v>-0.004529769923695062</v>
       </c>
       <c r="F11">
-        <v>-0.03502758758210826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02601044412211385</v>
+      </c>
+      <c r="G11">
+        <v>-0.04452749829429948</v>
+      </c>
+      <c r="H11">
+        <v>0.008630326999043232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04639372525849008</v>
+        <v>-0.03674100459301201</v>
       </c>
       <c r="C12">
-        <v>0.009714016355312018</v>
+        <v>-0.01327251166118231</v>
       </c>
       <c r="D12">
-        <v>0.02066988493684963</v>
+        <v>-0.02626762254741433</v>
       </c>
       <c r="E12">
-        <v>0.0362678857892481</v>
+        <v>0.00670332208297139</v>
       </c>
       <c r="F12">
-        <v>-0.01763184355887754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02766964397249518</v>
+      </c>
+      <c r="G12">
+        <v>-0.01264158259041089</v>
+      </c>
+      <c r="H12">
+        <v>0.007440856098365973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.04634291216415331</v>
+        <v>-0.03414402682143504</v>
       </c>
       <c r="C13">
-        <v>0.02114898976430182</v>
+        <v>0.007116882995651873</v>
       </c>
       <c r="D13">
-        <v>0.04757283277020827</v>
+        <v>-0.01156669141638276</v>
       </c>
       <c r="E13">
-        <v>0.01112272934335398</v>
+        <v>-0.01581881310838701</v>
       </c>
       <c r="F13">
-        <v>-0.1076451486277223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0294384903064723</v>
+      </c>
+      <c r="G13">
+        <v>-0.08951824119648638</v>
+      </c>
+      <c r="H13">
+        <v>0.03483577922717065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02181356827670636</v>
+        <v>-0.01864940061574734</v>
       </c>
       <c r="C14">
-        <v>0.02062032301935666</v>
+        <v>-0.002906446011667653</v>
       </c>
       <c r="D14">
-        <v>0.02506200892115232</v>
+        <v>-0.00353741794494706</v>
       </c>
       <c r="E14">
-        <v>0.03336395592800745</v>
+        <v>0.00759679712632966</v>
       </c>
       <c r="F14">
-        <v>-0.06142984173066405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03071529674702297</v>
+      </c>
+      <c r="G14">
+        <v>-0.04642390441729591</v>
+      </c>
+      <c r="H14">
+        <v>0.0621165813294321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03789129710428731</v>
+        <v>-0.03017761208188081</v>
       </c>
       <c r="C16">
-        <v>0.008606460958087833</v>
+        <v>-0.01500891589683216</v>
       </c>
       <c r="D16">
-        <v>0.02371676680592762</v>
+        <v>-0.02627047064737928</v>
       </c>
       <c r="E16">
-        <v>0.01929026305622611</v>
+        <v>0.0005653082160021815</v>
       </c>
       <c r="F16">
-        <v>-0.02822101009271994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02544576468519856</v>
+      </c>
+      <c r="G16">
+        <v>-0.03196048520866056</v>
+      </c>
+      <c r="H16">
+        <v>0.009693470493862374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05648506123453455</v>
+        <v>-0.04044246034310047</v>
       </c>
       <c r="C19">
-        <v>0.001460017249151709</v>
+        <v>-0.006960180129608848</v>
       </c>
       <c r="D19">
-        <v>0.04078173349936091</v>
+        <v>-0.02217655783263839</v>
       </c>
       <c r="E19">
-        <v>0.02411091380300445</v>
+        <v>-0.003927312271126832</v>
       </c>
       <c r="F19">
-        <v>-0.08950920664330533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03662874267736027</v>
+      </c>
+      <c r="G19">
+        <v>-0.0901407938017658</v>
+      </c>
+      <c r="H19">
+        <v>0.04207210863568556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01726573105170792</v>
+        <v>-0.01182221655109839</v>
       </c>
       <c r="C20">
-        <v>0.01555197471525164</v>
+        <v>0.004339587103076017</v>
       </c>
       <c r="D20">
-        <v>0.03479389258997713</v>
+        <v>-0.01161546468646849</v>
       </c>
       <c r="E20">
-        <v>0.04506143310714506</v>
+        <v>0.004130576930052585</v>
       </c>
       <c r="F20">
-        <v>-0.05629079593729946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02558530095497796</v>
+      </c>
+      <c r="G20">
+        <v>-0.05357984962100142</v>
+      </c>
+      <c r="H20">
+        <v>0.05807771003802772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01658814319483503</v>
+        <v>-0.02522137863761205</v>
       </c>
       <c r="C21">
-        <v>-0.001436890942582169</v>
+        <v>0.002759067543548004</v>
       </c>
       <c r="D21">
-        <v>0.0313847388161695</v>
+        <v>-0.01087394809462624</v>
       </c>
       <c r="E21">
-        <v>0.02844146147154</v>
+        <v>0.01187455542084633</v>
       </c>
       <c r="F21">
-        <v>-0.09702967311999541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01551858700365001</v>
+      </c>
+      <c r="G21">
+        <v>-0.07404397776858697</v>
+      </c>
+      <c r="H21">
+        <v>0.02818231567758436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03576380873158688</v>
+        <v>-0.02888268494324553</v>
       </c>
       <c r="C24">
-        <v>0.007641371480270053</v>
+        <v>-0.009663198767243331</v>
       </c>
       <c r="D24">
-        <v>0.01980721316984772</v>
+        <v>-0.02344001574339691</v>
       </c>
       <c r="E24">
-        <v>0.02029269339078598</v>
+        <v>0.0009151121641382039</v>
       </c>
       <c r="F24">
-        <v>-0.03837109524215743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02208463901300331</v>
+      </c>
+      <c r="G24">
+        <v>-0.03412341014230412</v>
+      </c>
+      <c r="H24">
+        <v>0.004105944319474321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04133009245620072</v>
+        <v>-0.03941557472736751</v>
       </c>
       <c r="C25">
-        <v>0.006996428381443956</v>
+        <v>-0.00894589862554567</v>
       </c>
       <c r="D25">
-        <v>0.0229223243979356</v>
+        <v>-0.0223459942295069</v>
       </c>
       <c r="E25">
-        <v>0.02887181954372248</v>
+        <v>0.001618733609773504</v>
       </c>
       <c r="F25">
-        <v>-0.04063595076669054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02910669841638176</v>
+      </c>
+      <c r="G25">
+        <v>-0.04438123436443412</v>
+      </c>
+      <c r="H25">
+        <v>0.004601461955861216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02144642986852489</v>
+        <v>-0.02044879854239059</v>
       </c>
       <c r="C26">
-        <v>-0.0008665067202760085</v>
+        <v>0.01581025281798717</v>
       </c>
       <c r="D26">
-        <v>0.04564850541413254</v>
+        <v>-0.01397937352242788</v>
       </c>
       <c r="E26">
-        <v>0.0171357540482926</v>
+        <v>-0.005140442344947725</v>
       </c>
       <c r="F26">
-        <v>-0.05464223176868363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01000477876703563</v>
+      </c>
+      <c r="G26">
+        <v>-0.04903982412863505</v>
+      </c>
+      <c r="H26">
+        <v>0.04334144054147753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09759118325119302</v>
+        <v>-0.04604253775328789</v>
       </c>
       <c r="C27">
-        <v>0.04893408033021427</v>
+        <v>-0.02241039737058022</v>
       </c>
       <c r="D27">
-        <v>0.02110217843009946</v>
+        <v>-0.007231979999943561</v>
       </c>
       <c r="E27">
-        <v>0.04528557062819644</v>
+        <v>0.002228660723270747</v>
       </c>
       <c r="F27">
-        <v>-0.0522705506527663</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.03318242733392176</v>
+      </c>
+      <c r="G27">
+        <v>-0.03958476334991889</v>
+      </c>
+      <c r="H27">
+        <v>0.03084245536362578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04471689147435805</v>
+        <v>-0.08883289913734718</v>
       </c>
       <c r="C28">
-        <v>0.07431521646910401</v>
+        <v>-0.0153021372751978</v>
       </c>
       <c r="D28">
-        <v>-0.1554966713850817</v>
+        <v>0.2308867266531181</v>
       </c>
       <c r="E28">
-        <v>-0.1673071733434683</v>
+        <v>-0.02450851304710671</v>
       </c>
       <c r="F28">
-        <v>-0.07392919214913038</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.1198187894544688</v>
+      </c>
+      <c r="G28">
+        <v>-0.02844713903783254</v>
+      </c>
+      <c r="H28">
+        <v>0.05642662154792818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02391681453524767</v>
+        <v>-0.02146587050313553</v>
       </c>
       <c r="C29">
-        <v>0.01978689523489601</v>
+        <v>-0.004481956306450908</v>
       </c>
       <c r="D29">
-        <v>0.01987851111149793</v>
+        <v>-0.002203835746056777</v>
       </c>
       <c r="E29">
-        <v>0.0399877832547653</v>
+        <v>0.008291296914857568</v>
       </c>
       <c r="F29">
-        <v>-0.0401877726423798</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03049441182010995</v>
+      </c>
+      <c r="G29">
+        <v>-0.03598756751984201</v>
+      </c>
+      <c r="H29">
+        <v>0.06098481138267197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1018794451276546</v>
+        <v>-0.07555862116491203</v>
       </c>
       <c r="C30">
-        <v>0.04953032039291883</v>
+        <v>-0.01250922645425317</v>
       </c>
       <c r="D30">
-        <v>0.06290021961041442</v>
+        <v>-0.03864944969569881</v>
       </c>
       <c r="E30">
-        <v>0.04441231989762635</v>
+        <v>-0.03957094162632074</v>
       </c>
       <c r="F30">
-        <v>-0.0654649100349681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.07298064162940539</v>
+      </c>
+      <c r="G30">
+        <v>-0.08595935976061893</v>
+      </c>
+      <c r="H30">
+        <v>0.0174964347287956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.059469405402039</v>
+        <v>-0.05359079879225014</v>
       </c>
       <c r="C31">
-        <v>0.01571320497197504</v>
+        <v>-0.0205152274065877</v>
       </c>
       <c r="D31">
-        <v>0.04155449561770611</v>
+        <v>-0.009130210968386473</v>
       </c>
       <c r="E31">
-        <v>-0.007392667651172269</v>
+        <v>-0.009696475947860061</v>
       </c>
       <c r="F31">
-        <v>-0.02453512299538613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02078140713174502</v>
+      </c>
+      <c r="G31">
+        <v>-0.01393505957456698</v>
+      </c>
+      <c r="H31">
+        <v>0.06017168515293955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.052906567653502</v>
+        <v>-0.01810622002895711</v>
       </c>
       <c r="C32">
-        <v>0.01105464486586896</v>
+        <v>-0.01999727296047314</v>
       </c>
       <c r="D32">
-        <v>0.04791305883099834</v>
+        <v>-0.02044479194189096</v>
       </c>
       <c r="E32">
-        <v>0.07273669809009302</v>
+        <v>0.01780904329760155</v>
       </c>
       <c r="F32">
-        <v>-0.07060029885285656</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05875280028400327</v>
+      </c>
+      <c r="G32">
+        <v>-0.07379207018528475</v>
+      </c>
+      <c r="H32">
+        <v>0.006268739252379783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.06403762398708694</v>
+        <v>-0.04698148385194097</v>
       </c>
       <c r="C33">
-        <v>0.002728128258472815</v>
+        <v>-0.008816899843538298</v>
       </c>
       <c r="D33">
-        <v>0.06288295922965594</v>
+        <v>-0.03321454513373034</v>
       </c>
       <c r="E33">
-        <v>0.03013814729679711</v>
+        <v>-0.02250636057332724</v>
       </c>
       <c r="F33">
-        <v>-0.08333143109732268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02060217262605554</v>
+      </c>
+      <c r="G33">
+        <v>-0.07777837750872102</v>
+      </c>
+      <c r="H33">
+        <v>0.04849113475621698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.04085349040563108</v>
+        <v>-0.03190869121145237</v>
       </c>
       <c r="C34">
-        <v>0.01434743675220214</v>
+        <v>-0.02335645187336247</v>
       </c>
       <c r="D34">
-        <v>0.02604072825818069</v>
+        <v>-0.02396295474957144</v>
       </c>
       <c r="E34">
-        <v>0.02779809973477151</v>
+        <v>0.005934931717790145</v>
       </c>
       <c r="F34">
-        <v>-0.03875777968852333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02975656166537652</v>
+      </c>
+      <c r="G34">
+        <v>-0.03546552671144939</v>
+      </c>
+      <c r="H34">
+        <v>0.008139675540866137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01347608681232041</v>
+        <v>-0.01797155184007621</v>
       </c>
       <c r="C36">
-        <v>0.007845248969777088</v>
+        <v>0.003392624525276737</v>
       </c>
       <c r="D36">
-        <v>0.006425086511563597</v>
+        <v>-4.619644217082704e-05</v>
       </c>
       <c r="E36">
-        <v>0.01860835386085012</v>
+        <v>0.003432193813250406</v>
       </c>
       <c r="F36">
-        <v>-0.02586603795435065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.006782017360550828</v>
+      </c>
+      <c r="G36">
+        <v>-0.02587768728011025</v>
+      </c>
+      <c r="H36">
+        <v>0.03735146377561965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.008012558272488975</v>
+        <v>-0.01518659912659859</v>
       </c>
       <c r="C38">
-        <v>0.003968829112210876</v>
+        <v>-0.01634870016460931</v>
       </c>
       <c r="D38">
-        <v>-0.01318939510787766</v>
+        <v>0.0007495622189189507</v>
       </c>
       <c r="E38">
-        <v>0.005414961317554348</v>
+        <v>0.005190866032188039</v>
       </c>
       <c r="F38">
-        <v>-0.0311288327426686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01151071943547937</v>
+      </c>
+      <c r="G38">
+        <v>-0.0439337732201608</v>
+      </c>
+      <c r="H38">
+        <v>0.01774015511253439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05294914678667939</v>
+        <v>-0.03792199507785202</v>
       </c>
       <c r="C39">
-        <v>0.02041231119511392</v>
+        <v>-0.01332226228565133</v>
       </c>
       <c r="D39">
-        <v>0.04298705019021894</v>
+        <v>-0.04314660891086276</v>
       </c>
       <c r="E39">
-        <v>0.02185406565726866</v>
+        <v>-0.003200436896606554</v>
       </c>
       <c r="F39">
-        <v>-0.03357583045956909</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04843012065704925</v>
+      </c>
+      <c r="G39">
+        <v>-0.04860532203058518</v>
+      </c>
+      <c r="H39">
+        <v>-0.004699651524443056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.05309509230391522</v>
+        <v>-0.04073675387150019</v>
       </c>
       <c r="C40">
-        <v>0.03921674801443343</v>
+        <v>-0.009902646659641072</v>
       </c>
       <c r="D40">
-        <v>0.07115718488635508</v>
+        <v>-0.02565688541963252</v>
       </c>
       <c r="E40">
-        <v>0.02114288394809702</v>
+        <v>-0.02093421186752386</v>
       </c>
       <c r="F40">
-        <v>-0.08470877180766404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.0460591290837212</v>
+      </c>
+      <c r="G40">
+        <v>-0.07448644057395763</v>
+      </c>
+      <c r="H40">
+        <v>0.03653584908730258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005749198899559352</v>
+        <v>-0.004934067268246617</v>
       </c>
       <c r="C41">
-        <v>-0.002151222542163663</v>
+        <v>0.002199620157951683</v>
       </c>
       <c r="D41">
-        <v>0.01497612652428125</v>
+        <v>0.003580508651416196</v>
       </c>
       <c r="E41">
-        <v>0.01628508549179446</v>
+        <v>-0.0004556139187619358</v>
       </c>
       <c r="F41">
-        <v>-0.01603903444571395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0005376975180675995</v>
+      </c>
+      <c r="G41">
+        <v>-0.01245129588695621</v>
+      </c>
+      <c r="H41">
+        <v>0.04852379494459596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3513922806609024</v>
+        <v>-0.2839837859373809</v>
       </c>
       <c r="C42">
-        <v>-0.8791629900005338</v>
+        <v>0.04802564959458763</v>
       </c>
       <c r="D42">
-        <v>0.01223744238369388</v>
+        <v>-0.5561257397817485</v>
       </c>
       <c r="E42">
-        <v>-0.2664938246941346</v>
+        <v>-0.0820005107902054</v>
       </c>
       <c r="F42">
-        <v>0.04039043783248875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7615623340628723</v>
+      </c>
+      <c r="G42">
+        <v>0.0465337458215792</v>
+      </c>
+      <c r="H42">
+        <v>-0.02940373572129137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01295646019268865</v>
+        <v>-0.003910359441665831</v>
       </c>
       <c r="C43">
-        <v>0.001221706037859439</v>
+        <v>0.003975827057159784</v>
       </c>
       <c r="D43">
-        <v>0.02243744253815424</v>
+        <v>0.0009680068692496279</v>
       </c>
       <c r="E43">
-        <v>0.01637360690301366</v>
+        <v>-0.004414530263848748</v>
       </c>
       <c r="F43">
-        <v>-0.03667768119717429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004119308133246534</v>
+      </c>
+      <c r="G43">
+        <v>-0.02273246770451185</v>
+      </c>
+      <c r="H43">
+        <v>0.0475047901769116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03312604758892967</v>
+        <v>-0.01747572323133147</v>
       </c>
       <c r="C44">
-        <v>0.004142153263355245</v>
+        <v>-0.0035492486546937</v>
       </c>
       <c r="D44">
-        <v>0.05534205175913171</v>
+        <v>-0.02552869917981428</v>
       </c>
       <c r="E44">
-        <v>0.0514080098227753</v>
+        <v>0.002467498753836329</v>
       </c>
       <c r="F44">
-        <v>-0.1574802081247126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01281868155271815</v>
+      </c>
+      <c r="G44">
+        <v>-0.1084295398330064</v>
+      </c>
+      <c r="H44">
+        <v>0.08648642259264451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0254705356600976</v>
+        <v>-0.02213841767593925</v>
       </c>
       <c r="C46">
-        <v>0.01472540537501482</v>
+        <v>-0.001330484869912472</v>
       </c>
       <c r="D46">
-        <v>0.04142710588947868</v>
+        <v>-0.01344561429811908</v>
       </c>
       <c r="E46">
-        <v>0.03669801677643807</v>
+        <v>-0.003309969565366044</v>
       </c>
       <c r="F46">
-        <v>-0.03490626687335473</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03881291845733634</v>
+      </c>
+      <c r="G46">
+        <v>-0.04806005626992142</v>
+      </c>
+      <c r="H46">
+        <v>0.06178090288646643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09153011620272673</v>
+        <v>-0.07733737813440592</v>
       </c>
       <c r="C47">
-        <v>0.03524462292316131</v>
+        <v>-0.03977357192883289</v>
       </c>
       <c r="D47">
-        <v>0.02717377328832246</v>
+        <v>-0.01147563592892416</v>
       </c>
       <c r="E47">
-        <v>0.01570902349262403</v>
+        <v>-0.00567783991325655</v>
       </c>
       <c r="F47">
-        <v>0.0007560464363388109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03183374444255783</v>
+      </c>
+      <c r="G47">
+        <v>0.01580008049380194</v>
+      </c>
+      <c r="H47">
+        <v>0.068950357013583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01633052539826966</v>
+        <v>-0.01875727746327122</v>
       </c>
       <c r="C48">
-        <v>0.006903016110057088</v>
+        <v>-0.007531352819461626</v>
       </c>
       <c r="D48">
-        <v>0.025055550942609</v>
+        <v>-0.006398015223447086</v>
       </c>
       <c r="E48">
-        <v>0.02694347208937676</v>
+        <v>-0.0003895841914401506</v>
       </c>
       <c r="F48">
-        <v>-0.04722102080403552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0133920088545906</v>
+      </c>
+      <c r="G48">
+        <v>-0.03482998619487573</v>
+      </c>
+      <c r="H48">
+        <v>0.0328669102963389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09559097475842039</v>
+        <v>-0.07538663296918449</v>
       </c>
       <c r="C50">
-        <v>0.01453787469410232</v>
+        <v>-0.03546907616369527</v>
       </c>
       <c r="D50">
-        <v>0.03725717105131786</v>
+        <v>-0.02482125392208536</v>
       </c>
       <c r="E50">
-        <v>0.005516464864985738</v>
+        <v>0.00738864326709167</v>
       </c>
       <c r="F50">
-        <v>-0.005759210732315425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02596467705341111</v>
+      </c>
+      <c r="G50">
+        <v>-0.01579393090757084</v>
+      </c>
+      <c r="H50">
+        <v>0.05662899859661295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04246928932728863</v>
+        <v>-0.02538611467196004</v>
       </c>
       <c r="C51">
-        <v>-0.0006625908927511244</v>
+        <v>-0.002968873746835578</v>
       </c>
       <c r="D51">
-        <v>0.03741540844288017</v>
+        <v>0.003340518339210082</v>
       </c>
       <c r="E51">
-        <v>-0.01528106906052697</v>
+        <v>-0.01259314012960364</v>
       </c>
       <c r="F51">
-        <v>-0.1289295456078064</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01076197841522695</v>
+      </c>
+      <c r="G51">
+        <v>-0.09095816866691313</v>
+      </c>
+      <c r="H51">
+        <v>0.06657795305551158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1206717889040758</v>
+        <v>-0.105797531655727</v>
       </c>
       <c r="C53">
-        <v>0.03497173029441095</v>
+        <v>-0.0535482182572984</v>
       </c>
       <c r="D53">
-        <v>0.05652123843698775</v>
+        <v>-0.03961995741634002</v>
       </c>
       <c r="E53">
-        <v>0.02336780870182582</v>
+        <v>-0.003998713321776417</v>
       </c>
       <c r="F53">
-        <v>0.07331972816222693</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06022295493308728</v>
+      </c>
+      <c r="G53">
+        <v>0.0598894421794771</v>
+      </c>
+      <c r="H53">
+        <v>0.03516704407700853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02443322606874926</v>
+        <v>-0.02056111950977636</v>
       </c>
       <c r="C54">
-        <v>0.03062090201391492</v>
+        <v>-0.0136578544165365</v>
       </c>
       <c r="D54">
-        <v>0.01044804307284078</v>
+        <v>0.01593392547198608</v>
       </c>
       <c r="E54">
-        <v>0.01434638683916874</v>
+        <v>0.003017501781581753</v>
       </c>
       <c r="F54">
-        <v>-0.07108703857993161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01940457290407682</v>
+      </c>
+      <c r="G54">
+        <v>-0.04845213824960427</v>
+      </c>
+      <c r="H54">
+        <v>0.07067008927623029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1084247080455712</v>
+        <v>-0.09059023956213395</v>
       </c>
       <c r="C55">
-        <v>0.0263136549253866</v>
+        <v>-0.04679392087332571</v>
       </c>
       <c r="D55">
-        <v>0.009280709218394693</v>
+        <v>-0.03566741007306165</v>
       </c>
       <c r="E55">
-        <v>0.03992873066778119</v>
+        <v>0.009714479448546608</v>
       </c>
       <c r="F55">
-        <v>0.07004603704277969</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04967303638455661</v>
+      </c>
+      <c r="G55">
+        <v>0.04975114064570029</v>
+      </c>
+      <c r="H55">
+        <v>0.04463485092314533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1409944267894453</v>
+        <v>-0.1334445178981961</v>
       </c>
       <c r="C56">
-        <v>0.07204622173381063</v>
+        <v>-0.07481020270255551</v>
       </c>
       <c r="D56">
-        <v>0.0330225188303875</v>
+        <v>-0.03692757853817159</v>
       </c>
       <c r="E56">
-        <v>0.04472227309594545</v>
+        <v>0.002962488092547673</v>
       </c>
       <c r="F56">
-        <v>0.1639754339034188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0841351268862142</v>
+      </c>
+      <c r="G56">
+        <v>0.1136118673723209</v>
+      </c>
+      <c r="H56">
+        <v>0.0007116361702747816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.05667478488167704</v>
+        <v>-0.04810897058496719</v>
       </c>
       <c r="C57">
-        <v>0.0149173502270171</v>
+        <v>0.001790658280534199</v>
       </c>
       <c r="D57">
-        <v>0.04917174064991309</v>
+        <v>-0.01957459471915157</v>
       </c>
       <c r="E57">
-        <v>0.01430232374578366</v>
+        <v>-0.01155186995909044</v>
       </c>
       <c r="F57">
-        <v>-0.06961621726579814</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0325777967563142</v>
+      </c>
+      <c r="G57">
+        <v>-0.06512552626590369</v>
+      </c>
+      <c r="H57">
+        <v>0.01942925673812498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2314669378583425</v>
+        <v>-0.1589279821507535</v>
       </c>
       <c r="C58">
-        <v>0.05782369518433015</v>
+        <v>-0.06307414492869153</v>
       </c>
       <c r="D58">
-        <v>0.1292831519604833</v>
+        <v>-0.08549527405190345</v>
       </c>
       <c r="E58">
-        <v>0.05082489340411322</v>
+        <v>-0.0997924159951963</v>
       </c>
       <c r="F58">
-        <v>-0.2389251069882303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.059918419850605</v>
+      </c>
+      <c r="G58">
+        <v>-0.4158195876704236</v>
+      </c>
+      <c r="H58">
+        <v>0.3287264963088938</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05026018017005485</v>
+        <v>-0.09318962990644823</v>
       </c>
       <c r="C59">
-        <v>0.1008105703204551</v>
+        <v>-0.02463270631816501</v>
       </c>
       <c r="D59">
-        <v>-0.1150859193478242</v>
+        <v>0.2077711635742832</v>
       </c>
       <c r="E59">
-        <v>-0.1206041917809439</v>
+        <v>-0.03894000013996538</v>
       </c>
       <c r="F59">
-        <v>-0.05269803556258603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.08732244059392179</v>
+      </c>
+      <c r="G59">
+        <v>-0.04574253416040962</v>
+      </c>
+      <c r="H59">
+        <v>0.01002836756594249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.178350108336305</v>
+        <v>-0.178051771118592</v>
       </c>
       <c r="C60">
-        <v>0.07953547987444234</v>
+        <v>-0.05968413060135629</v>
       </c>
       <c r="D60">
-        <v>0.01409164472002637</v>
+        <v>0.0386256350588192</v>
       </c>
       <c r="E60">
-        <v>-0.07824417664191699</v>
+        <v>-0.06189402317497366</v>
       </c>
       <c r="F60">
-        <v>-0.1360551383693066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.0559605407885745</v>
+      </c>
+      <c r="G60">
+        <v>-0.1983443082878414</v>
+      </c>
+      <c r="H60">
+        <v>-0.3737268077682466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03342626617857312</v>
+        <v>-0.03143690138977977</v>
       </c>
       <c r="C61">
-        <v>0.01074020141167958</v>
+        <v>-0.01415648147482281</v>
       </c>
       <c r="D61">
-        <v>0.0187032575128791</v>
+        <v>-0.02664284357238923</v>
       </c>
       <c r="E61">
-        <v>0.02102319879238927</v>
+        <v>0.001864913697804415</v>
       </c>
       <c r="F61">
-        <v>-0.03725792148374339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03432121202116799</v>
+      </c>
+      <c r="G61">
+        <v>-0.03788736192706627</v>
+      </c>
+      <c r="H61">
+        <v>-0.01144552499126048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02618693147517042</v>
+        <v>-0.02008378622821241</v>
       </c>
       <c r="C63">
-        <v>0.0223320742972059</v>
+        <v>-0.00346645064181108</v>
       </c>
       <c r="D63">
-        <v>0.03718341113899709</v>
+        <v>-0.01345305467091076</v>
       </c>
       <c r="E63">
-        <v>0.03418388453567441</v>
+        <v>0.0004675585194199353</v>
       </c>
       <c r="F63">
-        <v>-0.0369548095839442</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02996317081610275</v>
+      </c>
+      <c r="G63">
+        <v>-0.03220517498103484</v>
+      </c>
+      <c r="H63">
+        <v>0.05445112537255464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05732089629935157</v>
+        <v>-0.05005323406143288</v>
       </c>
       <c r="C64">
-        <v>0.01410543790559185</v>
+        <v>-0.02009065693506663</v>
       </c>
       <c r="D64">
-        <v>0.02935167418555423</v>
+        <v>-0.03053842886109907</v>
       </c>
       <c r="E64">
-        <v>0.06503750161333074</v>
+        <v>0.009170268963016755</v>
       </c>
       <c r="F64">
-        <v>-0.04884613055264216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0360519514370968</v>
+      </c>
+      <c r="G64">
+        <v>-0.03774357761913617</v>
+      </c>
+      <c r="H64">
+        <v>0.03459933710505857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.007552865268520868</v>
+        <v>-0.03792112509491799</v>
       </c>
       <c r="C65">
-        <v>0.002655717602990992</v>
+        <v>-0.002301703847944703</v>
       </c>
       <c r="D65">
-        <v>0.003134372717830825</v>
+        <v>-0.01656114395483221</v>
       </c>
       <c r="E65">
-        <v>-0.006610487184950184</v>
+        <v>0.004005047552877876</v>
       </c>
       <c r="F65">
-        <v>-0.0009356922416399305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02986994995584641</v>
+      </c>
+      <c r="G65">
+        <v>-0.004492560666917458</v>
+      </c>
+      <c r="H65">
+        <v>-0.03702810488672729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.06017227404988364</v>
+        <v>-0.04801368620141747</v>
       </c>
       <c r="C66">
-        <v>0.03141572657510874</v>
+        <v>-0.02126753493572636</v>
       </c>
       <c r="D66">
-        <v>0.0524346326178672</v>
+        <v>-0.05124647932284933</v>
       </c>
       <c r="E66">
-        <v>0.04097913505177968</v>
+        <v>-0.01030599431086233</v>
       </c>
       <c r="F66">
-        <v>-0.04909042571947026</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07240306014230481</v>
+      </c>
+      <c r="G66">
+        <v>-0.05121474257045874</v>
+      </c>
+      <c r="H66">
+        <v>-0.01535683530636497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02410523009856391</v>
+        <v>-0.03281841751216575</v>
       </c>
       <c r="C67">
-        <v>0.01355363284793375</v>
+        <v>-0.02026342161375438</v>
       </c>
       <c r="D67">
-        <v>-0.02288886137068723</v>
+        <v>0.01175724415600233</v>
       </c>
       <c r="E67">
-        <v>-0.01136771362508214</v>
+        <v>0.0002713501894352559</v>
       </c>
       <c r="F67">
-        <v>-0.03550890497968557</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01155051419305339</v>
+      </c>
+      <c r="G67">
+        <v>-0.03601944992182837</v>
+      </c>
+      <c r="H67">
+        <v>0.001413443830369984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05454370049674183</v>
+        <v>-0.0933772409644399</v>
       </c>
       <c r="C68">
-        <v>0.083301177942033</v>
+        <v>-0.002033475191755155</v>
       </c>
       <c r="D68">
-        <v>-0.1621596355188926</v>
+        <v>0.21464218105338</v>
       </c>
       <c r="E68">
-        <v>-0.1661693703241154</v>
+        <v>-0.03243063323171629</v>
       </c>
       <c r="F68">
-        <v>-0.01009250897697987</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1136979632886444</v>
+      </c>
+      <c r="G68">
+        <v>-0.005746445111592917</v>
+      </c>
+      <c r="H68">
+        <v>0.04260031210806994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07183726246580109</v>
+        <v>-0.06248968015124101</v>
       </c>
       <c r="C69">
-        <v>0.03589942247006165</v>
+        <v>-0.03651764984603303</v>
       </c>
       <c r="D69">
-        <v>0.01525383954319705</v>
+        <v>-0.00805715037392919</v>
       </c>
       <c r="E69">
-        <v>-0.01297826761631544</v>
+        <v>-0.007664271445965869</v>
       </c>
       <c r="F69">
-        <v>-0.010041925611192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02671171949121139</v>
+      </c>
+      <c r="G69">
+        <v>-0.0002675636230498547</v>
+      </c>
+      <c r="H69">
+        <v>0.04453906339287293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05454534134948841</v>
+        <v>-0.09098605404133558</v>
       </c>
       <c r="C71">
-        <v>0.09989786781886965</v>
+        <v>-0.01064144926584135</v>
       </c>
       <c r="D71">
-        <v>-0.1922033155270737</v>
+        <v>0.2252805660946153</v>
       </c>
       <c r="E71">
-        <v>-0.2534287687037839</v>
+        <v>-0.04038825878268994</v>
       </c>
       <c r="F71">
-        <v>-0.08298948423903231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1345479272601354</v>
+      </c>
+      <c r="G71">
+        <v>-0.02409888910138587</v>
+      </c>
+      <c r="H71">
+        <v>0.01540078260812574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1231547746919554</v>
+        <v>-0.1095804594600872</v>
       </c>
       <c r="C72">
-        <v>0.1054728181724157</v>
+        <v>-0.06468546342447817</v>
       </c>
       <c r="D72">
-        <v>0.03154448983637747</v>
+        <v>-0.02165788408736468</v>
       </c>
       <c r="E72">
-        <v>0.04226285098770863</v>
+        <v>-0.0131138089366239</v>
       </c>
       <c r="F72">
-        <v>-0.03855634314479612</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1161802280081264</v>
+      </c>
+      <c r="G72">
+        <v>-0.1030981245466086</v>
+      </c>
+      <c r="H72">
+        <v>-0.104773956868599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2585981866467038</v>
+        <v>-0.2519896893964895</v>
       </c>
       <c r="C73">
-        <v>0.1096382613399529</v>
+        <v>-0.0800918425731333</v>
       </c>
       <c r="D73">
-        <v>-0.01799595722032528</v>
+        <v>0.03215417283927952</v>
       </c>
       <c r="E73">
-        <v>-0.1191652399093319</v>
+        <v>-0.09673452201843312</v>
       </c>
       <c r="F73">
-        <v>-0.245700608335526</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.06021585522210507</v>
+      </c>
+      <c r="G73">
+        <v>-0.2772086898183548</v>
+      </c>
+      <c r="H73">
+        <v>-0.531900134420056</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1320723066571189</v>
+        <v>-0.1227073934977653</v>
       </c>
       <c r="C74">
-        <v>0.03423296794339464</v>
+        <v>-0.06734286376860986</v>
       </c>
       <c r="D74">
-        <v>0.02400491166679393</v>
+        <v>-0.03829630798853991</v>
       </c>
       <c r="E74">
-        <v>0.00834092875064647</v>
+        <v>-0.006157827064323886</v>
       </c>
       <c r="F74">
-        <v>0.1181139925103643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06499289665426065</v>
+      </c>
+      <c r="G74">
+        <v>0.085489786895484</v>
+      </c>
+      <c r="H74">
+        <v>-0.01048874582922826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2273315471452586</v>
+        <v>-0.2365157045667791</v>
       </c>
       <c r="C75">
-        <v>0.1049750326593615</v>
+        <v>-0.1316740270131365</v>
       </c>
       <c r="D75">
-        <v>0.05964661996906069</v>
+        <v>-0.03864730215107294</v>
       </c>
       <c r="E75">
-        <v>0.01069180927579087</v>
+        <v>-0.02867950691590817</v>
       </c>
       <c r="F75">
-        <v>0.1851318468602905</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1250061512909918</v>
+      </c>
+      <c r="G75">
+        <v>0.186229675401939</v>
+      </c>
+      <c r="H75">
+        <v>0.01952322077788909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2445010646166896</v>
+        <v>-0.2195181327060297</v>
       </c>
       <c r="C76">
-        <v>0.1219388429146657</v>
+        <v>-0.1272604359434191</v>
       </c>
       <c r="D76">
-        <v>0.001364305765958943</v>
+        <v>-0.03275980669016397</v>
       </c>
       <c r="E76">
-        <v>0.04760469072439484</v>
+        <v>0.01633147216704091</v>
       </c>
       <c r="F76">
-        <v>0.2247694358949157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1359640585277806</v>
+      </c>
+      <c r="G76">
+        <v>0.206819480994885</v>
+      </c>
+      <c r="H76">
+        <v>0.03914429579593728</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1558655348666514</v>
+        <v>-0.09467539740319</v>
       </c>
       <c r="C77">
-        <v>-0.01843965299725206</v>
+        <v>-0.02677446081572456</v>
       </c>
       <c r="D77">
-        <v>0.07928315598084044</v>
+        <v>-0.07485267727433735</v>
       </c>
       <c r="E77">
-        <v>0.03188529594455975</v>
+        <v>-0.01021047530213322</v>
       </c>
       <c r="F77">
-        <v>-0.1907033132343622</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01156713124826727</v>
+      </c>
+      <c r="G77">
+        <v>-0.1450924389957855</v>
+      </c>
+      <c r="H77">
+        <v>0.2043367197029551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07568484128112304</v>
+        <v>-0.05057640203182791</v>
       </c>
       <c r="C78">
-        <v>0.001816711140994907</v>
+        <v>-0.02139140945612274</v>
       </c>
       <c r="D78">
-        <v>0.07088755737504629</v>
+        <v>-0.05570622549875312</v>
       </c>
       <c r="E78">
-        <v>0.07644223416453534</v>
+        <v>0.004733443320786544</v>
       </c>
       <c r="F78">
-        <v>-0.03674232166174431</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05169824786788776</v>
+      </c>
+      <c r="G78">
+        <v>-0.06553782533934535</v>
+      </c>
+      <c r="H78">
+        <v>0.02774767803314451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1625380884645882</v>
+        <v>-0.1667214269777274</v>
       </c>
       <c r="C80">
-        <v>-0.1503704682224686</v>
+        <v>-0.06155997301395155</v>
       </c>
       <c r="D80">
-        <v>-0.7163609020757433</v>
+        <v>0.05012739265100496</v>
       </c>
       <c r="E80">
-        <v>0.6388315363810488</v>
+        <v>0.9643882163208186</v>
       </c>
       <c r="F80">
-        <v>-0.07257137726820526</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.09557601779304634</v>
+      </c>
+      <c r="G80">
+        <v>-0.09120137675235791</v>
+      </c>
+      <c r="H80">
+        <v>-0.03449368684245197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1605719758761418</v>
+        <v>-0.1621980414454862</v>
       </c>
       <c r="C81">
-        <v>0.09076757113756302</v>
+        <v>-0.09037314289945088</v>
       </c>
       <c r="D81">
-        <v>0.03414397513967195</v>
+        <v>-0.02827671529437331</v>
       </c>
       <c r="E81">
-        <v>0.03229993803215822</v>
+        <v>-0.0042607041844855</v>
       </c>
       <c r="F81">
-        <v>0.2001424519518351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.09576455688619263</v>
+      </c>
+      <c r="G81">
+        <v>0.1385428788209197</v>
+      </c>
+      <c r="H81">
+        <v>0.03614158924396423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05904581304543546</v>
+        <v>-0.0437704064891062</v>
       </c>
       <c r="C83">
-        <v>-0.0162698585301736</v>
+        <v>-0.01448684442932304</v>
       </c>
       <c r="D83">
-        <v>0.05378768739256707</v>
+        <v>-0.02488641377242461</v>
       </c>
       <c r="E83">
-        <v>0.0221847183597973</v>
+        <v>-0.01198085629229868</v>
       </c>
       <c r="F83">
-        <v>-0.06329287019652348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01741795136431739</v>
+      </c>
+      <c r="G83">
+        <v>-0.05976821929879118</v>
+      </c>
+      <c r="H83">
+        <v>0.03722635066621078</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2296726888159134</v>
+        <v>-0.2251589698759007</v>
       </c>
       <c r="C85">
-        <v>0.08122736811730284</v>
+        <v>-0.113586524561237</v>
       </c>
       <c r="D85">
-        <v>0.02957746437395842</v>
+        <v>-0.05927635007689761</v>
       </c>
       <c r="E85">
-        <v>0.02562279690418041</v>
+        <v>-0.01621748715534644</v>
       </c>
       <c r="F85">
-        <v>0.1986563921235762</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1195514513414365</v>
+      </c>
+      <c r="G85">
+        <v>0.1773568266047342</v>
+      </c>
+      <c r="H85">
+        <v>0.03162822480724663</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02335732725272212</v>
+        <v>-0.0153749233721234</v>
       </c>
       <c r="C86">
-        <v>-0.01155321998349529</v>
+        <v>-0.001399236361918189</v>
       </c>
       <c r="D86">
-        <v>0.04341623340256141</v>
+        <v>-0.01445723855425163</v>
       </c>
       <c r="E86">
-        <v>0.05891795631662665</v>
+        <v>-0.006698857705459438</v>
       </c>
       <c r="F86">
-        <v>-0.09436224690464742</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0184701147229451</v>
+      </c>
+      <c r="G86">
+        <v>-0.1004812971419574</v>
+      </c>
+      <c r="H86">
+        <v>0.05791437537887324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01437221360867296</v>
+        <v>-0.02366236354878262</v>
       </c>
       <c r="C87">
-        <v>0.0325714483927315</v>
+        <v>-0.003070223898390169</v>
       </c>
       <c r="D87">
-        <v>-0.03589067001491369</v>
+        <v>0.01050804277734152</v>
       </c>
       <c r="E87">
-        <v>-0.03318939123026975</v>
+        <v>-0.0004637636958739323</v>
       </c>
       <c r="F87">
-        <v>-0.08368278212798187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.007945899358124425</v>
+      </c>
+      <c r="G87">
+        <v>-0.09615413788890569</v>
+      </c>
+      <c r="H87">
+        <v>-0.001327907294644761</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01357812984736028</v>
+        <v>-0.03720439054041039</v>
       </c>
       <c r="C88">
-        <v>0.01984390957545318</v>
+        <v>0.00758164732282202</v>
       </c>
       <c r="D88">
-        <v>-0.012208499668325</v>
+        <v>0.01447266718615576</v>
       </c>
       <c r="E88">
-        <v>0.01331030389739227</v>
+        <v>0.004306233748784626</v>
       </c>
       <c r="F88">
-        <v>-0.03469926117823537</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01236135184855871</v>
+      </c>
+      <c r="G88">
+        <v>-0.01210417305224689</v>
+      </c>
+      <c r="H88">
+        <v>0.02784229664643496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.07638382955996008</v>
+        <v>-0.146116412200817</v>
       </c>
       <c r="C89">
-        <v>0.1024644716992511</v>
+        <v>-0.01555643393684213</v>
       </c>
       <c r="D89">
-        <v>-0.1956290408544359</v>
+        <v>0.3406112007669712</v>
       </c>
       <c r="E89">
-        <v>-0.2615249099734616</v>
+        <v>-0.0789637478302337</v>
       </c>
       <c r="F89">
-        <v>-0.09001192937090342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1743661421749387</v>
+      </c>
+      <c r="G89">
+        <v>-0.01404021001801979</v>
+      </c>
+      <c r="H89">
+        <v>0.09598028675920751</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07296332517365002</v>
+        <v>-0.1117760117296501</v>
       </c>
       <c r="C90">
-        <v>0.102531263366573</v>
+        <v>-0.009780400072190887</v>
       </c>
       <c r="D90">
-        <v>-0.2296982181156164</v>
+        <v>0.2924470691544345</v>
       </c>
       <c r="E90">
-        <v>-0.2124826729750007</v>
+        <v>-0.04988613442357423</v>
       </c>
       <c r="F90">
-        <v>-0.05265135747132631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1645701336542605</v>
+      </c>
+      <c r="G90">
+        <v>0.02543606033557392</v>
+      </c>
+      <c r="H90">
+        <v>0.05587183452779206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2853671465359141</v>
+        <v>-0.2514705923487899</v>
       </c>
       <c r="C91">
-        <v>0.08968032682665522</v>
+        <v>-0.1383884211591634</v>
       </c>
       <c r="D91">
-        <v>0.0642674098526321</v>
+        <v>-0.07764733065081617</v>
       </c>
       <c r="E91">
-        <v>0.03918593946819627</v>
+        <v>-0.01761720207517818</v>
       </c>
       <c r="F91">
-        <v>0.3101417850124216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1314158944679914</v>
+      </c>
+      <c r="G91">
+        <v>0.2545152214750708</v>
+      </c>
+      <c r="H91">
+        <v>0.05793068290972869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.112684528133039</v>
+        <v>-0.1776684703544289</v>
       </c>
       <c r="C92">
-        <v>0.08788238517602223</v>
+        <v>-0.08546740352333577</v>
       </c>
       <c r="D92">
-        <v>-0.2470576833656689</v>
+        <v>0.2988171273468459</v>
       </c>
       <c r="E92">
-        <v>-0.2216781435923467</v>
+        <v>-0.03401220131152673</v>
       </c>
       <c r="F92">
-        <v>-0.02225983554869166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1555037872657247</v>
+      </c>
+      <c r="G92">
+        <v>0.07366523460344897</v>
+      </c>
+      <c r="H92">
+        <v>0.1741225673895478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06888581047366217</v>
+        <v>-0.1331488733133949</v>
       </c>
       <c r="C93">
-        <v>0.08965746963726433</v>
+        <v>-0.01957276781944867</v>
       </c>
       <c r="D93">
-        <v>-0.2796343422843116</v>
+        <v>0.334256354024767</v>
       </c>
       <c r="E93">
-        <v>-0.2879677615585547</v>
+        <v>-0.06804998469968244</v>
       </c>
       <c r="F93">
-        <v>-0.03663273100827213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2171014592532598</v>
+      </c>
+      <c r="G93">
+        <v>0.02729201528232762</v>
+      </c>
+      <c r="H93">
+        <v>-0.01508832136281828</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2396975274249106</v>
+        <v>-0.2600849945790289</v>
       </c>
       <c r="C94">
-        <v>0.1119948550558442</v>
+        <v>-0.1214700457264189</v>
       </c>
       <c r="D94">
-        <v>-0.01277990586693637</v>
+        <v>-0.02344572636469932</v>
       </c>
       <c r="E94">
-        <v>0.004623129749099975</v>
+        <v>-0.03468132249674267</v>
       </c>
       <c r="F94">
-        <v>0.3346170060820328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1224914693010451</v>
+      </c>
+      <c r="G94">
+        <v>0.2811015889372515</v>
+      </c>
+      <c r="H94">
+        <v>0.04590873102294998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1395708379331094</v>
+        <v>-0.0939347045518804</v>
       </c>
       <c r="C95">
-        <v>0.002588665881210287</v>
+        <v>-0.05469624077876672</v>
       </c>
       <c r="D95">
-        <v>0.1316913273753337</v>
+        <v>-0.06472281099088496</v>
       </c>
       <c r="E95">
-        <v>0.05412000741211678</v>
+        <v>-0.07513075368899401</v>
       </c>
       <c r="F95">
-        <v>-0.07484588458440893</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03934387674298889</v>
+      </c>
+      <c r="G95">
+        <v>-0.09509577778061792</v>
+      </c>
+      <c r="H95">
+        <v>0.1338089722394642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1898759313610993</v>
+        <v>-0.1783544728140067</v>
       </c>
       <c r="C98">
-        <v>0.05792892815376057</v>
+        <v>-0.08822047140980327</v>
       </c>
       <c r="D98">
-        <v>-0.00503294614156332</v>
+        <v>0.02919247973899136</v>
       </c>
       <c r="E98">
-        <v>-0.09498242795544534</v>
+        <v>-0.0649413696175135</v>
       </c>
       <c r="F98">
-        <v>-0.08627103199450083</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01889650889012171</v>
+      </c>
+      <c r="G98">
+        <v>-0.1913502606096215</v>
+      </c>
+      <c r="H98">
+        <v>-0.3926554157542529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007403054918697821</v>
+        <v>-0.01442218928595355</v>
       </c>
       <c r="C101">
-        <v>0.02874129133608408</v>
+        <v>-0.001783587907819487</v>
       </c>
       <c r="D101">
-        <v>0.04894328880751327</v>
+        <v>-0.005402779118122896</v>
       </c>
       <c r="E101">
-        <v>0.06313105569266809</v>
+        <v>0.004286448579598334</v>
       </c>
       <c r="F101">
-        <v>-0.1288874305599204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03924345649202653</v>
+      </c>
+      <c r="G101">
+        <v>-0.07960346242979528</v>
+      </c>
+      <c r="H101">
+        <v>0.110592064255841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09536763525486092</v>
+        <v>-0.1154797880468194</v>
       </c>
       <c r="C102">
-        <v>0.02876183367504873</v>
+        <v>-0.05125126565909822</v>
       </c>
       <c r="D102">
-        <v>0.03483787237615055</v>
+        <v>-0.03206941375642085</v>
       </c>
       <c r="E102">
-        <v>0.04998402864112533</v>
+        <v>-0.0003340163669390673</v>
       </c>
       <c r="F102">
-        <v>0.1352339748533118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06646468151945865</v>
+      </c>
+      <c r="G102">
+        <v>0.1239996739216519</v>
+      </c>
+      <c r="H102">
+        <v>0.01724959037301469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02626808383843662</v>
+        <v>-0.02475377177700917</v>
       </c>
       <c r="C103">
-        <v>0.007155494309779078</v>
+        <v>-0.01186095126648742</v>
       </c>
       <c r="D103">
-        <v>0.002794783479203218</v>
+        <v>-0.00787931755792527</v>
       </c>
       <c r="E103">
-        <v>-0.001772037343737674</v>
+        <v>0.007066042538842926</v>
       </c>
       <c r="F103">
-        <v>0.04147926680496447</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01366321522801819</v>
+      </c>
+      <c r="G103">
+        <v>0.0148430092950212</v>
+      </c>
+      <c r="H103">
+        <v>0.01745232048207581</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.351640211749314</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9143745122827656</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.02671444211441689</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.01698982708071841</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1655145747437164</v>
+      </c>
+      <c r="G104">
+        <v>0.05631891101067774</v>
+      </c>
+      <c r="H104">
+        <v>0.002140428577177473</v>
       </c>
     </row>
   </sheetData>
